--- a/data/pca/factorExposure/factorExposure_2015-11-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01418510914399267</v>
+        <v>0.01317004875591209</v>
       </c>
       <c r="C2">
-        <v>-0.02988719802109334</v>
+        <v>0.03484636579825095</v>
       </c>
       <c r="D2">
-        <v>0.09730552320463318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1295102335467044</v>
+      </c>
+      <c r="E2">
+        <v>0.0681625579585054</v>
+      </c>
+      <c r="F2">
+        <v>0.03106006787651068</v>
+      </c>
+      <c r="G2">
+        <v>-0.08765830145014</v>
+      </c>
+      <c r="H2">
+        <v>0.06517630605303169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01653675641361015</v>
+        <v>0.01016705512645027</v>
       </c>
       <c r="C3">
-        <v>-0.05760619903583827</v>
+        <v>0.04308724985224275</v>
       </c>
       <c r="D3">
-        <v>0.08740142639246606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05537246576984491</v>
+      </c>
+      <c r="E3">
+        <v>0.04774383348293058</v>
+      </c>
+      <c r="F3">
+        <v>0.05965187711449905</v>
+      </c>
+      <c r="G3">
+        <v>-0.1066309889615116</v>
+      </c>
+      <c r="H3">
+        <v>0.01005522022604441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.050541116712504</v>
+        <v>0.05201208467262301</v>
       </c>
       <c r="C4">
-        <v>-0.05250407980456023</v>
+        <v>0.06890469757945336</v>
       </c>
       <c r="D4">
-        <v>0.1268525881640579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1482813309418909</v>
+      </c>
+      <c r="E4">
+        <v>0.05268305525247724</v>
+      </c>
+      <c r="F4">
+        <v>0.02295155360178661</v>
+      </c>
+      <c r="G4">
+        <v>0.04527288189703598</v>
+      </c>
+      <c r="H4">
+        <v>0.01312419353948712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04162029854964323</v>
+        <v>0.03968175193493864</v>
       </c>
       <c r="C6">
-        <v>-0.01659499952480561</v>
+        <v>0.02868512723176896</v>
       </c>
       <c r="D6">
-        <v>0.1404469724209192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1410074493127626</v>
+      </c>
+      <c r="E6">
+        <v>0.02678820531557773</v>
+      </c>
+      <c r="F6">
+        <v>0.01775925247198214</v>
+      </c>
+      <c r="G6">
+        <v>-0.0103169452202967</v>
+      </c>
+      <c r="H6">
+        <v>0.05187646056082668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01796348392608197</v>
+        <v>0.0131966240923904</v>
       </c>
       <c r="C7">
-        <v>-0.02378487548823045</v>
+        <v>0.03365473974074996</v>
       </c>
       <c r="D7">
-        <v>0.103841749839919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09760894540511153</v>
+      </c>
+      <c r="E7">
+        <v>0.02177534518856559</v>
+      </c>
+      <c r="F7">
+        <v>0.02321262937840531</v>
+      </c>
+      <c r="G7">
+        <v>-0.02855429635506318</v>
+      </c>
+      <c r="H7">
+        <v>0.06577556507100882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008865417716942565</v>
+        <v>0.006279708417693577</v>
       </c>
       <c r="C8">
-        <v>-0.02765794866405293</v>
+        <v>0.03810745736123163</v>
       </c>
       <c r="D8">
-        <v>0.06354028143761108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08127612458554551</v>
+      </c>
+      <c r="E8">
+        <v>0.03082646424918106</v>
+      </c>
+      <c r="F8">
+        <v>0.04485701813040791</v>
+      </c>
+      <c r="G8">
+        <v>-0.02622681879498681</v>
+      </c>
+      <c r="H8">
+        <v>0.03468556504707754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04226429683809157</v>
+        <v>0.04148149979127005</v>
       </c>
       <c r="C9">
-        <v>-0.04907166459731666</v>
+        <v>0.06369768970868869</v>
       </c>
       <c r="D9">
-        <v>0.1109786917029722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1229094014896811</v>
+      </c>
+      <c r="E9">
+        <v>0.03974625308332986</v>
+      </c>
+      <c r="F9">
+        <v>0.006073643686766066</v>
+      </c>
+      <c r="G9">
+        <v>0.02504574343194352</v>
+      </c>
+      <c r="H9">
+        <v>0.01417965129462864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1056566189211006</v>
+        <v>0.1441386823149288</v>
       </c>
       <c r="C10">
-        <v>0.1887605309485973</v>
+        <v>-0.1888280097253514</v>
       </c>
       <c r="D10">
-        <v>-0.003217993160965561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006376407919917312</v>
+      </c>
+      <c r="E10">
+        <v>0.04721676375405623</v>
+      </c>
+      <c r="F10">
+        <v>0.03456656494102121</v>
+      </c>
+      <c r="G10">
+        <v>0.02457155041229319</v>
+      </c>
+      <c r="H10">
+        <v>-0.03278502267301256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03188021497706552</v>
+        <v>0.02845976964166553</v>
       </c>
       <c r="C11">
-        <v>-0.03830666981699098</v>
+        <v>0.04426810375684652</v>
       </c>
       <c r="D11">
-        <v>0.05859978183276127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05879003789502105</v>
+      </c>
+      <c r="E11">
+        <v>-0.007546469078878673</v>
+      </c>
+      <c r="F11">
+        <v>0.003559708034224883</v>
+      </c>
+      <c r="G11">
+        <v>-0.01265765078379231</v>
+      </c>
+      <c r="H11">
+        <v>0.03104051534375584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03817468804006271</v>
+        <v>0.03359736639779597</v>
       </c>
       <c r="C12">
-        <v>-0.03923156554563984</v>
+        <v>0.04598814241060491</v>
       </c>
       <c r="D12">
-        <v>0.06233749117695452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05839293185420045</v>
+      </c>
+      <c r="E12">
+        <v>-0.000424253695219002</v>
+      </c>
+      <c r="F12">
+        <v>-0.005796432051213316</v>
+      </c>
+      <c r="G12">
+        <v>-0.01792552821172471</v>
+      </c>
+      <c r="H12">
+        <v>0.02618152118666232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01433996907429315</v>
+        <v>0.01795086272409606</v>
       </c>
       <c r="C13">
-        <v>-0.03397254931893223</v>
+        <v>0.04030565277459056</v>
       </c>
       <c r="D13">
-        <v>0.1314335399436796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1516001842029568</v>
+      </c>
+      <c r="E13">
+        <v>0.03576430857761957</v>
+      </c>
+      <c r="F13">
+        <v>0.04674627968828166</v>
+      </c>
+      <c r="G13">
+        <v>-0.03177457802833947</v>
+      </c>
+      <c r="H13">
+        <v>0.05863561905442866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004739154210547149</v>
+        <v>0.006889898550825202</v>
       </c>
       <c r="C14">
-        <v>-0.01881507452398694</v>
+        <v>0.02353542426217916</v>
       </c>
       <c r="D14">
-        <v>0.08808770770585615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09268206059384948</v>
+      </c>
+      <c r="E14">
+        <v>0.03410500410437346</v>
+      </c>
+      <c r="F14">
+        <v>0.002537758243042665</v>
+      </c>
+      <c r="G14">
+        <v>-0.03237582168703498</v>
+      </c>
+      <c r="H14">
+        <v>0.08140598295787192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002243947785794045</v>
+        <v>0.001125551957609672</v>
       </c>
       <c r="C15">
-        <v>-0.001853385497222719</v>
+        <v>0.01164481227052747</v>
       </c>
       <c r="D15">
-        <v>0.00257050882152653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0358281606452639</v>
+      </c>
+      <c r="E15">
+        <v>0.007885892538261167</v>
+      </c>
+      <c r="F15">
+        <v>-0.001036276550408923</v>
+      </c>
+      <c r="G15">
+        <v>-0.01009597348155141</v>
+      </c>
+      <c r="H15">
+        <v>0.01686776712241243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03185862355648664</v>
+        <v>0.02924990368298609</v>
       </c>
       <c r="C16">
-        <v>-0.04008202667492384</v>
+        <v>0.0440826110932541</v>
       </c>
       <c r="D16">
-        <v>0.0685406087590732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06469693377215585</v>
+      </c>
+      <c r="E16">
+        <v>0.004991055464131185</v>
+      </c>
+      <c r="F16">
+        <v>-0.004839986355958073</v>
+      </c>
+      <c r="G16">
+        <v>-0.01374110342406865</v>
+      </c>
+      <c r="H16">
+        <v>0.04370503582074801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006420164799790848</v>
+        <v>0.00445609004745982</v>
       </c>
       <c r="C19">
-        <v>-0.029197903520858</v>
+        <v>0.02338784879110217</v>
       </c>
       <c r="D19">
-        <v>0.1541390096629577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1183498039046381</v>
+      </c>
+      <c r="E19">
+        <v>0.05937536548598686</v>
+      </c>
+      <c r="F19">
+        <v>-0.007940470384272529</v>
+      </c>
+      <c r="G19">
+        <v>-0.03826179759823555</v>
+      </c>
+      <c r="H19">
+        <v>0.02652975172399434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01398841362065244</v>
+        <v>0.01510471105673532</v>
       </c>
       <c r="C20">
-        <v>-0.02899519810519012</v>
+        <v>0.03387620961087307</v>
       </c>
       <c r="D20">
-        <v>0.08665802348938781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1023177377837301</v>
+      </c>
+      <c r="E20">
+        <v>0.04973780434784991</v>
+      </c>
+      <c r="F20">
+        <v>0.002455038532167469</v>
+      </c>
+      <c r="G20">
+        <v>-0.0117190858233212</v>
+      </c>
+      <c r="H20">
+        <v>0.04801325370577334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007596960590074431</v>
+        <v>0.009648879212329421</v>
       </c>
       <c r="C21">
-        <v>-0.02953642433472068</v>
+        <v>0.03851544708241634</v>
       </c>
       <c r="D21">
-        <v>0.1301100410734516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1408795293168579</v>
+      </c>
+      <c r="E21">
+        <v>0.08066071865267957</v>
+      </c>
+      <c r="F21">
+        <v>0.01248071259432135</v>
+      </c>
+      <c r="G21">
+        <v>-0.01012253997396108</v>
+      </c>
+      <c r="H21">
+        <v>0.05191951479697991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005582955795319238</v>
+        <v>0.005408210919380506</v>
       </c>
       <c r="C22">
-        <v>-0.02938488128544415</v>
+        <v>0.04187811497040315</v>
       </c>
       <c r="D22">
-        <v>0.0984165315051774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1559729694850204</v>
+      </c>
+      <c r="E22">
+        <v>0.02792738502763053</v>
+      </c>
+      <c r="F22">
+        <v>0.08719017005531064</v>
+      </c>
+      <c r="G22">
+        <v>-0.05700711811074698</v>
+      </c>
+      <c r="H22">
+        <v>0.01148196958758345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005699722364744437</v>
+        <v>0.005520353854021902</v>
       </c>
       <c r="C23">
-        <v>-0.02934722419399425</v>
+        <v>0.04235584457762419</v>
       </c>
       <c r="D23">
-        <v>0.09769929481991114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1553870352348</v>
+      </c>
+      <c r="E23">
+        <v>0.02825973581260794</v>
+      </c>
+      <c r="F23">
+        <v>0.08716682122743571</v>
+      </c>
+      <c r="G23">
+        <v>-0.05609453425341372</v>
+      </c>
+      <c r="H23">
+        <v>0.01123925714135506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03521021322754143</v>
+        <v>0.03081634343891208</v>
       </c>
       <c r="C24">
-        <v>-0.04910758444617368</v>
+        <v>0.05603436238874172</v>
       </c>
       <c r="D24">
-        <v>0.06748570587348829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06753788690441841</v>
+      </c>
+      <c r="E24">
+        <v>0.0107836180099116</v>
+      </c>
+      <c r="F24">
+        <v>-0.001531021988362976</v>
+      </c>
+      <c r="G24">
+        <v>-0.009363480000789282</v>
+      </c>
+      <c r="H24">
+        <v>0.04905143701943587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03809360352087972</v>
+        <v>0.03470507931261287</v>
       </c>
       <c r="C25">
-        <v>-0.04888914185935837</v>
+        <v>0.05354136675814455</v>
       </c>
       <c r="D25">
-        <v>0.06670663872735118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06355799946984923</v>
+      </c>
+      <c r="E25">
+        <v>0.01118515900151034</v>
+      </c>
+      <c r="F25">
+        <v>0.002892099507010769</v>
+      </c>
+      <c r="G25">
+        <v>-0.009950730434013613</v>
+      </c>
+      <c r="H25">
+        <v>0.02131453727558411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01798729809503981</v>
+        <v>0.01833159975431752</v>
       </c>
       <c r="C26">
-        <v>-0.008116895563250182</v>
+        <v>0.01731052714410881</v>
       </c>
       <c r="D26">
-        <v>0.05921118761340784</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06677860999620287</v>
+      </c>
+      <c r="E26">
+        <v>0.02257988382380332</v>
+      </c>
+      <c r="F26">
+        <v>0.009327110495106214</v>
+      </c>
+      <c r="G26">
+        <v>-0.01827635986923783</v>
+      </c>
+      <c r="H26">
+        <v>0.05522438854229883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1545170263514431</v>
+        <v>0.2046236488257032</v>
       </c>
       <c r="C28">
-        <v>0.2619179417514625</v>
+        <v>-0.252508969030061</v>
       </c>
       <c r="D28">
-        <v>-0.03111730751473222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01178463876705626</v>
+      </c>
+      <c r="E28">
+        <v>0.07779768092989629</v>
+      </c>
+      <c r="F28">
+        <v>0.01714462049115711</v>
+      </c>
+      <c r="G28">
+        <v>0.04992308101382648</v>
+      </c>
+      <c r="H28">
+        <v>-0.03591121886714529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00295694294440682</v>
+        <v>0.004651946555628212</v>
       </c>
       <c r="C29">
-        <v>-0.01863610287213983</v>
+        <v>0.02230754784960135</v>
       </c>
       <c r="D29">
-        <v>0.07328049556586876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09038214469572765</v>
+      </c>
+      <c r="E29">
+        <v>0.03029574833865438</v>
+      </c>
+      <c r="F29">
+        <v>0.01764994177167755</v>
+      </c>
+      <c r="G29">
+        <v>-0.01674070415974335</v>
+      </c>
+      <c r="H29">
+        <v>0.08265713332968835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03153729721152891</v>
+        <v>0.0378630425913182</v>
       </c>
       <c r="C30">
-        <v>-0.03784044251068003</v>
+        <v>0.0597191098847103</v>
       </c>
       <c r="D30">
-        <v>0.1568601460650386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.173303916507254</v>
+      </c>
+      <c r="E30">
+        <v>0.02157907396719026</v>
+      </c>
+      <c r="F30">
+        <v>0.007137308287553243</v>
+      </c>
+      <c r="G30">
+        <v>-0.003624562698365982</v>
+      </c>
+      <c r="H30">
+        <v>0.07615726762755932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06321853118635862</v>
+        <v>0.05312677014377872</v>
       </c>
       <c r="C31">
-        <v>-0.05602692121080827</v>
+        <v>0.07450263707053939</v>
       </c>
       <c r="D31">
-        <v>0.06966757329983617</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05517595287840307</v>
+      </c>
+      <c r="E31">
+        <v>0.02937079303108684</v>
+      </c>
+      <c r="F31">
+        <v>0.03500688735736483</v>
+      </c>
+      <c r="G31">
+        <v>0.002208105415769197</v>
+      </c>
+      <c r="H31">
+        <v>0.009839477725799519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006196945554188349</v>
+        <v>0.01575185240709906</v>
       </c>
       <c r="C32">
-        <v>-0.01512342951858308</v>
+        <v>0.01531087389887543</v>
       </c>
       <c r="D32">
-        <v>0.06855314832179957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1124288797467818</v>
+      </c>
+      <c r="E32">
+        <v>0.0903410632449245</v>
+      </c>
+      <c r="F32">
+        <v>0.03195950437682821</v>
+      </c>
+      <c r="G32">
+        <v>-0.0135023930884109</v>
+      </c>
+      <c r="H32">
+        <v>0.04905848241553697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02177507238584997</v>
+        <v>0.02406457350906869</v>
       </c>
       <c r="C33">
-        <v>-0.03158688723024614</v>
+        <v>0.04201969278493284</v>
       </c>
       <c r="D33">
-        <v>0.1348547257564723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1349089944474293</v>
+      </c>
+      <c r="E33">
+        <v>0.04140775856545081</v>
+      </c>
+      <c r="F33">
+        <v>0.01800407335606584</v>
+      </c>
+      <c r="G33">
+        <v>-0.02161909395656555</v>
+      </c>
+      <c r="H33">
+        <v>0.04904913130506834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03304195107487531</v>
+        <v>0.02724975214108822</v>
       </c>
       <c r="C34">
-        <v>-0.06033001625476973</v>
+        <v>0.0608869867750351</v>
       </c>
       <c r="D34">
-        <v>0.06910348863035985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0568234567720221</v>
+      </c>
+      <c r="E34">
+        <v>-0.006381810943693823</v>
+      </c>
+      <c r="F34">
+        <v>-0.006323268117293961</v>
+      </c>
+      <c r="G34">
+        <v>-0.02285597779932302</v>
+      </c>
+      <c r="H34">
+        <v>0.03365880155819038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00083960129159205</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001034776782795759</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005826836940648093</v>
+      </c>
+      <c r="E35">
+        <v>0.001413989697215901</v>
+      </c>
+      <c r="F35">
+        <v>0.0007283678774520069</v>
+      </c>
+      <c r="G35">
+        <v>-0.001610684643413436</v>
+      </c>
+      <c r="H35">
+        <v>0.002573408789518083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01957058865833617</v>
+        <v>0.01939274185946411</v>
       </c>
       <c r="C36">
-        <v>-0.00344427626371187</v>
+        <v>0.01399503306187789</v>
       </c>
       <c r="D36">
-        <v>0.07576268978939302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07858722321419614</v>
+      </c>
+      <c r="E36">
+        <v>0.0288101046134406</v>
+      </c>
+      <c r="F36">
+        <v>0.007260537502587862</v>
+      </c>
+      <c r="G36">
+        <v>-0.002503257733864331</v>
+      </c>
+      <c r="H36">
+        <v>0.04685851505887954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01863907944695347</v>
+        <v>0.02021773643466169</v>
       </c>
       <c r="C38">
-        <v>-0.01686249215575732</v>
+        <v>0.01998446664103019</v>
       </c>
       <c r="D38">
-        <v>0.05898002919274577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06397532474841262</v>
+      </c>
+      <c r="E38">
+        <v>0.03440599889250249</v>
+      </c>
+      <c r="F38">
+        <v>-0.00548605746521781</v>
+      </c>
+      <c r="G38">
+        <v>-0.04475896180329306</v>
+      </c>
+      <c r="H38">
+        <v>0.02373303981204508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03684826649445638</v>
+        <v>0.03454116227340477</v>
       </c>
       <c r="C39">
-        <v>-0.04998206091977256</v>
+        <v>0.06677390656485355</v>
       </c>
       <c r="D39">
-        <v>0.08921522525741843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1036252430174692</v>
+      </c>
+      <c r="E39">
+        <v>0.00412195065877112</v>
+      </c>
+      <c r="F39">
+        <v>-0.02509468320362617</v>
+      </c>
+      <c r="G39">
+        <v>-0.01697657663281406</v>
+      </c>
+      <c r="H39">
+        <v>0.08335387956943903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01678532066426535</v>
+        <v>0.01196631443846407</v>
       </c>
       <c r="C40">
-        <v>-0.04261437997956839</v>
+        <v>0.04020574571963356</v>
       </c>
       <c r="D40">
-        <v>0.07322929080783071</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08342299127365957</v>
+      </c>
+      <c r="E40">
+        <v>0.05738460015240256</v>
+      </c>
+      <c r="F40">
+        <v>0.08003290672260339</v>
+      </c>
+      <c r="G40">
+        <v>-0.1120062216733496</v>
+      </c>
+      <c r="H40">
+        <v>0.07996546928603222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02530089001691253</v>
+        <v>0.02362640594873205</v>
       </c>
       <c r="C41">
-        <v>0.001593748187390861</v>
+        <v>0.008475664439315045</v>
       </c>
       <c r="D41">
-        <v>0.06850367285079691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0571199968114038</v>
+      </c>
+      <c r="E41">
+        <v>0.05263955406600559</v>
+      </c>
+      <c r="F41">
+        <v>0.006206099052411461</v>
+      </c>
+      <c r="G41">
+        <v>-0.02796356520340765</v>
+      </c>
+      <c r="H41">
+        <v>0.02606707685161757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02779691853349477</v>
+        <v>0.0234705548486445</v>
       </c>
       <c r="C43">
-        <v>-0.01161759605119187</v>
+        <v>0.01802700270343979</v>
       </c>
       <c r="D43">
-        <v>0.1079495247283759</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08631634504456057</v>
+      </c>
+      <c r="E43">
+        <v>0.02960276433816024</v>
+      </c>
+      <c r="F43">
+        <v>0.007936703657592229</v>
+      </c>
+      <c r="G43">
+        <v>-0.03236377397527212</v>
+      </c>
+      <c r="H43">
+        <v>0.03213643516817136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0134695296786821</v>
+        <v>0.01591520434760935</v>
       </c>
       <c r="C44">
-        <v>-0.04294038689949431</v>
+        <v>0.04208656094863613</v>
       </c>
       <c r="D44">
-        <v>0.07927157006301755</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1033662187131221</v>
+      </c>
+      <c r="E44">
+        <v>0.06195611601538005</v>
+      </c>
+      <c r="F44">
+        <v>0.01651692195579262</v>
+      </c>
+      <c r="G44">
+        <v>-0.02467455801532232</v>
+      </c>
+      <c r="H44">
+        <v>0.04595523585830647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01409413299758587</v>
+        <v>0.012959348299577</v>
       </c>
       <c r="C46">
-        <v>-0.0215268161133182</v>
+        <v>0.02960038206925241</v>
       </c>
       <c r="D46">
-        <v>0.08226709022289104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08716997568359286</v>
+      </c>
+      <c r="E46">
+        <v>0.03443882013021539</v>
+      </c>
+      <c r="F46">
+        <v>-0.008630234067012967</v>
+      </c>
+      <c r="G46">
+        <v>-0.01277515098172934</v>
+      </c>
+      <c r="H46">
+        <v>0.06587286963895675</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09300956447627526</v>
+        <v>0.08109457377498225</v>
       </c>
       <c r="C47">
-        <v>-0.07558571946428612</v>
+        <v>0.09115112255945584</v>
       </c>
       <c r="D47">
-        <v>0.04559785402303915</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03460733424173366</v>
+      </c>
+      <c r="E47">
+        <v>0.0351795401063093</v>
+      </c>
+      <c r="F47">
+        <v>0.01958480960791309</v>
+      </c>
+      <c r="G47">
+        <v>0.01466152738055163</v>
+      </c>
+      <c r="H47">
+        <v>-0.0684359080057739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01177628114341089</v>
+        <v>0.0145641463380225</v>
       </c>
       <c r="C48">
-        <v>-0.01397245232717781</v>
+        <v>0.01960134421350937</v>
       </c>
       <c r="D48">
-        <v>0.06310309251477142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07187202998890604</v>
+      </c>
+      <c r="E48">
+        <v>0.05067053420214303</v>
+      </c>
+      <c r="F48">
+        <v>0.001685190569083873</v>
+      </c>
+      <c r="G48">
+        <v>-0.003611011039929758</v>
+      </c>
+      <c r="H48">
+        <v>0.04753483334400377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05717208877849195</v>
+        <v>0.05020707393245275</v>
       </c>
       <c r="C50">
-        <v>-0.05531485166949047</v>
+        <v>0.06783471532480205</v>
       </c>
       <c r="D50">
-        <v>0.06155109700943902</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05450027081036914</v>
+      </c>
+      <c r="E50">
+        <v>0.04124215515026761</v>
+      </c>
+      <c r="F50">
+        <v>0.0361472096397016</v>
+      </c>
+      <c r="G50">
+        <v>-0.0300437793231245</v>
+      </c>
+      <c r="H50">
+        <v>0.003324354607241589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01033420616394863</v>
+        <v>0.01087353301046464</v>
       </c>
       <c r="C51">
-        <v>-0.01339956113979053</v>
+        <v>0.01884807933292697</v>
       </c>
       <c r="D51">
-        <v>0.07806956360447456</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09048458551946285</v>
+      </c>
+      <c r="E51">
+        <v>0.01570053097225948</v>
+      </c>
+      <c r="F51">
+        <v>0.0102666426583073</v>
+      </c>
+      <c r="G51">
+        <v>-0.02647861827834774</v>
+      </c>
+      <c r="H51">
+        <v>0.07945666231194756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08832842891708502</v>
+        <v>0.08534741479416948</v>
       </c>
       <c r="C53">
-        <v>-0.08597139297291101</v>
+        <v>0.1011908363908409</v>
       </c>
       <c r="D53">
-        <v>0.0022551033440126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01534034673060407</v>
+      </c>
+      <c r="E53">
+        <v>0.1099371987709985</v>
+      </c>
+      <c r="F53">
+        <v>0.05348390237743354</v>
+      </c>
+      <c r="G53">
+        <v>0.07347877081410724</v>
+      </c>
+      <c r="H53">
+        <v>-0.01188824259734558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0278827277441304</v>
+        <v>0.02548812856221576</v>
       </c>
       <c r="C54">
-        <v>-0.02739296479353065</v>
+        <v>0.03461108235456387</v>
       </c>
       <c r="D54">
-        <v>0.09547245429949525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08997119297694707</v>
+      </c>
+      <c r="E54">
+        <v>0.03735931556258762</v>
+      </c>
+      <c r="F54">
+        <v>-0.004746205002173825</v>
+      </c>
+      <c r="G54">
+        <v>-0.04881237257365378</v>
+      </c>
+      <c r="H54">
+        <v>0.06009977570636148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09114529966572255</v>
+        <v>0.08394247287037958</v>
       </c>
       <c r="C55">
-        <v>-0.06116626686545202</v>
+        <v>0.08046482445041203</v>
       </c>
       <c r="D55">
-        <v>-0.01352784497972802</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005708407495649401</v>
+      </c>
+      <c r="E55">
+        <v>0.0585963372499896</v>
+      </c>
+      <c r="F55">
+        <v>0.04474196399120317</v>
+      </c>
+      <c r="G55">
+        <v>0.03923561212410193</v>
+      </c>
+      <c r="H55">
+        <v>-0.004789997309119279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1411785721629101</v>
+        <v>0.1304639599494334</v>
       </c>
       <c r="C56">
-        <v>-0.09601865141668685</v>
+        <v>0.1261359166681869</v>
       </c>
       <c r="D56">
-        <v>-0.00390311353089609</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00690622588952427</v>
+      </c>
+      <c r="E56">
+        <v>0.0613642894059646</v>
+      </c>
+      <c r="F56">
+        <v>0.0391838799958199</v>
+      </c>
+      <c r="G56">
+        <v>0.02566331803235113</v>
+      </c>
+      <c r="H56">
+        <v>-0.04798430533936939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009457672968641804</v>
+        <v>0.01903421686592985</v>
       </c>
       <c r="C58">
-        <v>0.001783364932153679</v>
+        <v>0.02884902354460137</v>
       </c>
       <c r="D58">
-        <v>0.2920565625909907</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3460371774201084</v>
+      </c>
+      <c r="E58">
+        <v>0.1868151546335221</v>
+      </c>
+      <c r="F58">
+        <v>0.102220795049396</v>
+      </c>
+      <c r="G58">
+        <v>-0.08875438824420785</v>
+      </c>
+      <c r="H58">
+        <v>0.04729369382515493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1436985728873252</v>
+        <v>0.1803195085228337</v>
       </c>
       <c r="C59">
-        <v>0.1889895766348857</v>
+        <v>-0.1691342194829332</v>
       </c>
       <c r="D59">
-        <v>0.03322787362882285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0521840742155766</v>
+      </c>
+      <c r="E59">
+        <v>0.02002048450630351</v>
+      </c>
+      <c r="F59">
+        <v>-0.03972263543902454</v>
+      </c>
+      <c r="G59">
+        <v>0.005559673424843299</v>
+      </c>
+      <c r="H59">
+        <v>-0.01792310221296005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2440846966814298</v>
+        <v>0.2272217548571019</v>
       </c>
       <c r="C60">
-        <v>-0.06756938003975521</v>
+        <v>0.1044670560270065</v>
       </c>
       <c r="D60">
-        <v>0.208356308977696</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1212916184397779</v>
+      </c>
+      <c r="E60">
+        <v>-0.3617264476978648</v>
+      </c>
+      <c r="F60">
+        <v>0.008565070144872068</v>
+      </c>
+      <c r="G60">
+        <v>0.06109167874241059</v>
+      </c>
+      <c r="H60">
+        <v>-0.09627795107246248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04410269977542452</v>
+        <v>0.04000260941282516</v>
       </c>
       <c r="C61">
-        <v>-0.05073385537494983</v>
+        <v>0.06223920120862104</v>
       </c>
       <c r="D61">
-        <v>0.102869532928751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09321760933683786</v>
+      </c>
+      <c r="E61">
+        <v>-0.00256855151744448</v>
+      </c>
+      <c r="F61">
+        <v>-0.01712994375859539</v>
+      </c>
+      <c r="G61">
+        <v>-0.01336803758931436</v>
+      </c>
+      <c r="H61">
+        <v>0.04302472434482342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01622075649637906</v>
+        <v>0.01506418204881338</v>
       </c>
       <c r="C63">
-        <v>-0.02213405845424131</v>
+        <v>0.03207717905981156</v>
       </c>
       <c r="D63">
-        <v>0.06293485492072667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06875923155727187</v>
+      </c>
+      <c r="E63">
+        <v>0.02751568107768653</v>
+      </c>
+      <c r="F63">
+        <v>0.02007156457620849</v>
+      </c>
+      <c r="G63">
+        <v>-0.01203083698889472</v>
+      </c>
+      <c r="H63">
+        <v>0.05382151051809773</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05625363042664212</v>
+        <v>0.05156585093701618</v>
       </c>
       <c r="C64">
-        <v>-0.06781337940723277</v>
+        <v>0.08195642393808703</v>
       </c>
       <c r="D64">
-        <v>0.05982480785311041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05638042654537496</v>
+      </c>
+      <c r="E64">
+        <v>0.02191953833396226</v>
+      </c>
+      <c r="F64">
+        <v>-0.01475193632792645</v>
+      </c>
+      <c r="G64">
+        <v>0.04348587029377659</v>
+      </c>
+      <c r="H64">
+        <v>0.04191159307832024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04646662057557437</v>
+        <v>0.04372909466819014</v>
       </c>
       <c r="C65">
-        <v>-0.01342820521991491</v>
+        <v>0.02871946326093178</v>
       </c>
       <c r="D65">
-        <v>0.1225277492123103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1202369815213128</v>
+      </c>
+      <c r="E65">
+        <v>0.001332741411974217</v>
+      </c>
+      <c r="F65">
+        <v>0.01254384322306934</v>
+      </c>
+      <c r="G65">
+        <v>-0.0206271269933519</v>
+      </c>
+      <c r="H65">
+        <v>0.01671614203451938</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04251547841663312</v>
+        <v>0.03914704533949771</v>
       </c>
       <c r="C66">
-        <v>-0.05565476837222045</v>
+        <v>0.07594840538490082</v>
       </c>
       <c r="D66">
-        <v>0.1097267224632949</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1307040304989902</v>
+      </c>
+      <c r="E66">
+        <v>0.008545903273297342</v>
+      </c>
+      <c r="F66">
+        <v>-0.01352514578779187</v>
+      </c>
+      <c r="G66">
+        <v>-0.02521251499793692</v>
+      </c>
+      <c r="H66">
+        <v>0.05378727740073573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03890937864142473</v>
+        <v>0.03752104631211622</v>
       </c>
       <c r="C67">
-        <v>-0.02096981784629186</v>
+        <v>0.02658976563515067</v>
       </c>
       <c r="D67">
-        <v>0.02985343477513023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02435550384460446</v>
+      </c>
+      <c r="E67">
+        <v>0.01250810724620754</v>
+      </c>
+      <c r="F67">
+        <v>-0.005801285706604198</v>
+      </c>
+      <c r="G67">
+        <v>-0.04036778450672304</v>
+      </c>
+      <c r="H67">
+        <v>0.02334982697477457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1663245652533959</v>
+        <v>0.1975976152214347</v>
       </c>
       <c r="C68">
-        <v>0.2301543473842489</v>
+        <v>-0.1945659158959143</v>
       </c>
       <c r="D68">
-        <v>-0.008328680685330464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01626576622332922</v>
+      </c>
+      <c r="E68">
+        <v>0.04769828894338078</v>
+      </c>
+      <c r="F68">
+        <v>0.03555523707820238</v>
+      </c>
+      <c r="G68">
+        <v>-0.008921283332147303</v>
+      </c>
+      <c r="H68">
+        <v>0.01932976166874217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08476424910981624</v>
+        <v>0.07273800702720688</v>
       </c>
       <c r="C69">
-        <v>-0.0857144167664121</v>
+        <v>0.09734555575351947</v>
       </c>
       <c r="D69">
-        <v>0.06974368455576242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.05076614198982844</v>
+      </c>
+      <c r="E69">
+        <v>0.02154393349993002</v>
+      </c>
+      <c r="F69">
+        <v>0.01025279040879192</v>
+      </c>
+      <c r="G69">
+        <v>0.0113668702207762</v>
+      </c>
+      <c r="H69">
+        <v>-0.02791658076302243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1454577020823995</v>
+        <v>0.1854627905396142</v>
       </c>
       <c r="C71">
-        <v>0.2323751027162467</v>
+        <v>-0.2075982324534014</v>
       </c>
       <c r="D71">
-        <v>0.02403989293151526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04249393726792487</v>
+      </c>
+      <c r="E71">
+        <v>0.05202067645546092</v>
+      </c>
+      <c r="F71">
+        <v>0.03948577491078323</v>
+      </c>
+      <c r="G71">
+        <v>0.001276674082345792</v>
+      </c>
+      <c r="H71">
+        <v>-0.01936122467471408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09685478389630391</v>
+        <v>0.0977813202763106</v>
       </c>
       <c r="C72">
-        <v>-0.04598382593531292</v>
+        <v>0.07400362157920794</v>
       </c>
       <c r="D72">
-        <v>0.09015872442807406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09661948405045885</v>
+      </c>
+      <c r="E72">
+        <v>-0.03706404745433074</v>
+      </c>
+      <c r="F72">
+        <v>0.03557165978456871</v>
+      </c>
+      <c r="G72">
+        <v>0.02652189728567131</v>
+      </c>
+      <c r="H72">
+        <v>0.05639309067198183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2591940192324632</v>
+        <v>0.2382717991168387</v>
       </c>
       <c r="C73">
-        <v>-0.02857169704681462</v>
+        <v>0.08866528679707275</v>
       </c>
       <c r="D73">
-        <v>0.3124302737786343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1598150620863329</v>
+      </c>
+      <c r="E73">
+        <v>-0.6624320405622353</v>
+      </c>
+      <c r="F73">
+        <v>-0.009985110317178797</v>
+      </c>
+      <c r="G73">
+        <v>0.07234833529228185</v>
+      </c>
+      <c r="H73">
+        <v>-0.07435995368485319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1097248603306998</v>
+        <v>0.09825355054846679</v>
       </c>
       <c r="C74">
-        <v>-0.06770428148994019</v>
+        <v>0.09162111342800364</v>
       </c>
       <c r="D74">
-        <v>0.006019623524026428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.00137368316412932</v>
+      </c>
+      <c r="E74">
+        <v>0.07850383303712616</v>
+      </c>
+      <c r="F74">
+        <v>0.07396770474889544</v>
+      </c>
+      <c r="G74">
+        <v>0.05737554326166563</v>
+      </c>
+      <c r="H74">
+        <v>-0.01353578541430956</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2496845007902596</v>
+        <v>0.2272533775584593</v>
       </c>
       <c r="C75">
-        <v>-0.1267077458737076</v>
+        <v>0.1665375882905475</v>
       </c>
       <c r="D75">
-        <v>-0.07409508963444222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09818530833694228</v>
+      </c>
+      <c r="E75">
+        <v>0.1019879316396501</v>
+      </c>
+      <c r="F75">
+        <v>-0.008517567610123972</v>
+      </c>
+      <c r="G75">
+        <v>0.05273408303464599</v>
+      </c>
+      <c r="H75">
+        <v>-0.09345471368140003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1402096271848559</v>
+        <v>0.1253721724738091</v>
       </c>
       <c r="C76">
-        <v>-0.0902911868175492</v>
+        <v>0.1147184403327304</v>
       </c>
       <c r="D76">
-        <v>-0.01333403985294742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.009807100665185508</v>
+      </c>
+      <c r="E76">
+        <v>0.1173669345290557</v>
+      </c>
+      <c r="F76">
+        <v>0.02287265352711788</v>
+      </c>
+      <c r="G76">
+        <v>0.03062096630345138</v>
+      </c>
+      <c r="H76">
+        <v>-0.0004523931160636438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05199802896710064</v>
+        <v>0.05910301248657111</v>
       </c>
       <c r="C77">
-        <v>-0.073290534636236</v>
+        <v>0.07048543221906693</v>
       </c>
       <c r="D77">
-        <v>0.04401249237796701</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1243763196293397</v>
+      </c>
+      <c r="E77">
+        <v>0.2350154687025142</v>
+      </c>
+      <c r="F77">
+        <v>-0.2841813795049578</v>
+      </c>
+      <c r="G77">
+        <v>-0.239709968117112</v>
+      </c>
+      <c r="H77">
+        <v>-0.7612356491089898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03977584308571743</v>
+        <v>0.04351713000859615</v>
       </c>
       <c r="C78">
-        <v>-0.05561018266476241</v>
+        <v>0.06751702738793752</v>
       </c>
       <c r="D78">
-        <v>0.1237005532478385</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1375501116047154</v>
+      </c>
+      <c r="E78">
+        <v>0.01133377148482656</v>
+      </c>
+      <c r="F78">
+        <v>0.01169622141135779</v>
+      </c>
+      <c r="G78">
+        <v>-0.0001505095456412512</v>
+      </c>
+      <c r="H78">
+        <v>-0.0129736687055472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02568754178330417</v>
+        <v>0.04673821039637222</v>
       </c>
       <c r="C79">
-        <v>-0.08100282830839108</v>
+        <v>0.09475029684181895</v>
       </c>
       <c r="D79">
-        <v>-0.06847601849019469</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01930752255993774</v>
+      </c>
+      <c r="E79">
+        <v>0.2225736223434116</v>
+      </c>
+      <c r="F79">
+        <v>0.1606776144556474</v>
+      </c>
+      <c r="G79">
+        <v>0.8046962669607509</v>
+      </c>
+      <c r="H79">
+        <v>-0.06581198173474603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0302279016680924</v>
+        <v>0.02434623067521286</v>
       </c>
       <c r="C80">
-        <v>-0.03784829025828338</v>
+        <v>0.0458925253600106</v>
       </c>
       <c r="D80">
-        <v>0.01184478116129073</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02268741618579989</v>
+      </c>
+      <c r="E80">
+        <v>0.0241822117415298</v>
+      </c>
+      <c r="F80">
+        <v>0.002050404349106564</v>
+      </c>
+      <c r="G80">
+        <v>-0.02742285869785719</v>
+      </c>
+      <c r="H80">
+        <v>0.05429840288799893</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1422697343134357</v>
+        <v>0.1250010740773346</v>
       </c>
       <c r="C81">
-        <v>-0.1011930101242597</v>
+        <v>0.1212426203599102</v>
       </c>
       <c r="D81">
-        <v>-0.06195507858666605</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07146565889938745</v>
+      </c>
+      <c r="E81">
+        <v>0.1132492819341151</v>
+      </c>
+      <c r="F81">
+        <v>0.02091628614083079</v>
+      </c>
+      <c r="G81">
+        <v>0.03890049616189075</v>
+      </c>
+      <c r="H81">
+        <v>-0.02732791539668315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3122731124064589</v>
+        <v>0.2555177998962517</v>
       </c>
       <c r="C82">
-        <v>-0.2603100843488948</v>
+        <v>0.264903623994909</v>
       </c>
       <c r="D82">
-        <v>-0.2312554123156274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2394503906667913</v>
+      </c>
+      <c r="E82">
+        <v>-0.02278288359499585</v>
+      </c>
+      <c r="F82">
+        <v>0.06021279667309023</v>
+      </c>
+      <c r="G82">
+        <v>-0.1048898701883925</v>
+      </c>
+      <c r="H82">
+        <v>-0.1836390853159099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02849387539037577</v>
+        <v>0.02144539032709629</v>
       </c>
       <c r="C83">
-        <v>-0.05055363771293646</v>
+        <v>0.05022629998943235</v>
       </c>
       <c r="D83">
-        <v>0.04524927183238384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04680655627436409</v>
+      </c>
+      <c r="E83">
+        <v>0.01655755654413671</v>
+      </c>
+      <c r="F83">
+        <v>-0.04923084562295994</v>
+      </c>
+      <c r="G83">
+        <v>-0.04935971197358108</v>
+      </c>
+      <c r="H83">
+        <v>-0.1012491152450272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006034530389355678</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004333347825733719</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01882947014443579</v>
+      </c>
+      <c r="E84">
+        <v>0.01906527743965758</v>
+      </c>
+      <c r="F84">
+        <v>0.00976248690942688</v>
+      </c>
+      <c r="G84">
+        <v>-0.00599709642098302</v>
+      </c>
+      <c r="H84">
+        <v>0.01992745277156348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1779822162819001</v>
+        <v>0.1563692525171645</v>
       </c>
       <c r="C85">
-        <v>-0.1014369260634565</v>
+        <v>0.1376672070401291</v>
       </c>
       <c r="D85">
-        <v>-0.03214303680948719</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05766762216603013</v>
+      </c>
+      <c r="E85">
+        <v>0.05087700970465025</v>
+      </c>
+      <c r="F85">
+        <v>0.03091503288756106</v>
+      </c>
+      <c r="G85">
+        <v>0.107433562942412</v>
+      </c>
+      <c r="H85">
+        <v>0.02816949974609038</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01149306545612007</v>
+        <v>0.01885612522910789</v>
       </c>
       <c r="C86">
-        <v>-0.03641056739075157</v>
+        <v>0.02373123881180797</v>
       </c>
       <c r="D86">
-        <v>0.1304872598960639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1205959377507667</v>
+      </c>
+      <c r="E86">
+        <v>0.003980452700186223</v>
+      </c>
+      <c r="F86">
+        <v>-0.01629636509385693</v>
+      </c>
+      <c r="G86">
+        <v>-0.03514938208824468</v>
+      </c>
+      <c r="H86">
+        <v>-0.07573750312190745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02734762647792175</v>
+        <v>0.03524863695943299</v>
       </c>
       <c r="C87">
-        <v>-0.009981568052018646</v>
+        <v>0.02581409134915269</v>
       </c>
       <c r="D87">
-        <v>0.09841045836394814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1383585215764686</v>
+      </c>
+      <c r="E87">
+        <v>0.07519331244508663</v>
+      </c>
+      <c r="F87">
+        <v>-0.003659358036772505</v>
+      </c>
+      <c r="G87">
+        <v>-0.02609797866398176</v>
+      </c>
+      <c r="H87">
+        <v>0.02828182233379862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07494997530025289</v>
+        <v>0.06813681607074072</v>
       </c>
       <c r="C88">
-        <v>-0.03646712209354636</v>
+        <v>0.05335502674111033</v>
       </c>
       <c r="D88">
-        <v>0.05193126676860071</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02843673852688873</v>
+      </c>
+      <c r="E88">
+        <v>-0.0003767130916702425</v>
+      </c>
+      <c r="F88">
+        <v>0.02340568573151713</v>
+      </c>
+      <c r="G88">
+        <v>0.005495433128795611</v>
+      </c>
+      <c r="H88">
+        <v>0.02992267788304195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2249260032180834</v>
+        <v>0.2836286954181149</v>
       </c>
       <c r="C89">
-        <v>0.3965925728043668</v>
+        <v>-0.3508191463043154</v>
       </c>
       <c r="D89">
-        <v>-0.03235568509963278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003680053830258363</v>
+      </c>
+      <c r="E89">
+        <v>0.04315356235854964</v>
+      </c>
+      <c r="F89">
+        <v>-0.04013851163131867</v>
+      </c>
+      <c r="G89">
+        <v>0.0300586490651652</v>
+      </c>
+      <c r="H89">
+        <v>0.07105263548786465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.200495833278816</v>
+        <v>0.2417126448355917</v>
       </c>
       <c r="C90">
-        <v>0.2949047633050726</v>
+        <v>-0.2493744402341567</v>
       </c>
       <c r="D90">
-        <v>-0.004044103103197132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02008542894484856</v>
+      </c>
+      <c r="E90">
+        <v>0.05193216234107547</v>
+      </c>
+      <c r="F90">
+        <v>0.003485858279185818</v>
+      </c>
+      <c r="G90">
+        <v>-0.06660150940698459</v>
+      </c>
+      <c r="H90">
+        <v>0.01076317047884798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1829830247325748</v>
+        <v>0.1567378394998933</v>
       </c>
       <c r="C91">
-        <v>-0.1438229167291417</v>
+        <v>0.1584486607989131</v>
       </c>
       <c r="D91">
-        <v>-0.08320672850378402</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08434658659992098</v>
+      </c>
+      <c r="E91">
+        <v>0.1079513443099063</v>
+      </c>
+      <c r="F91">
+        <v>0.0206302374010335</v>
+      </c>
+      <c r="G91">
+        <v>0.1003432434100136</v>
+      </c>
+      <c r="H91">
+        <v>-0.06285356986349913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1785192669805249</v>
+        <v>0.2274657245753619</v>
       </c>
       <c r="C92">
-        <v>0.2926977681635118</v>
+        <v>-0.2708634609143537</v>
       </c>
       <c r="D92">
-        <v>0.01242980137350773</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03109241456873763</v>
+      </c>
+      <c r="E92">
+        <v>0.09286883025204286</v>
+      </c>
+      <c r="F92">
+        <v>0.002064366646982559</v>
+      </c>
+      <c r="G92">
+        <v>-0.03559216072406844</v>
+      </c>
+      <c r="H92">
+        <v>-0.007591402423874485</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2248885652348375</v>
+        <v>0.2629997761405023</v>
       </c>
       <c r="C93">
-        <v>0.3098282803878501</v>
+        <v>-0.2619799386768332</v>
       </c>
       <c r="D93">
-        <v>0.006934089402825371</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0006113494737718166</v>
+      </c>
+      <c r="E93">
+        <v>0.005454765433181634</v>
+      </c>
+      <c r="F93">
+        <v>0.01694382346198589</v>
+      </c>
+      <c r="G93">
+        <v>0.01071445592494696</v>
+      </c>
+      <c r="H93">
+        <v>0.01819006509989937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3916508474423169</v>
+        <v>0.3338836673755224</v>
       </c>
       <c r="C94">
-        <v>-0.2240205999895402</v>
+        <v>0.2682587410831015</v>
       </c>
       <c r="D94">
-        <v>-0.4446695917930343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.428845466675787</v>
+      </c>
+      <c r="E94">
+        <v>0.09360268404056687</v>
+      </c>
+      <c r="F94">
+        <v>-0.02133441461012468</v>
+      </c>
+      <c r="G94">
+        <v>-0.3270148072312235</v>
+      </c>
+      <c r="H94">
+        <v>0.3669330330539365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07730403394158687</v>
+        <v>0.0696679803397809</v>
       </c>
       <c r="C95">
-        <v>-0.06096799150457226</v>
+        <v>0.06540208386118464</v>
       </c>
       <c r="D95">
-        <v>0.1176317775922658</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07812691077927623</v>
+      </c>
+      <c r="E95">
+        <v>0.03791280071499239</v>
+      </c>
+      <c r="F95">
+        <v>-0.9002031881486702</v>
+      </c>
+      <c r="G95">
+        <v>0.1994147371015185</v>
+      </c>
+      <c r="H95">
+        <v>0.2376711281599102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1683780986838139</v>
+        <v>0.1611492475335118</v>
       </c>
       <c r="C98">
-        <v>-0.02663706676252455</v>
+        <v>0.06660204278044485</v>
       </c>
       <c r="D98">
-        <v>0.1739637040904143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1226277815243103</v>
+      </c>
+      <c r="E98">
+        <v>-0.3167796927507156</v>
+      </c>
+      <c r="F98">
+        <v>0.03585198414361697</v>
+      </c>
+      <c r="G98">
+        <v>0.05983971425433322</v>
+      </c>
+      <c r="H98">
+        <v>-0.06516186901775781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002978372421620237</v>
+        <v>0.004727882484658858</v>
       </c>
       <c r="C101">
-        <v>-0.017970053951366</v>
+        <v>0.02156020929077633</v>
       </c>
       <c r="D101">
-        <v>0.07343338524337298</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09025459756673944</v>
+      </c>
+      <c r="E101">
+        <v>0.03083579036304846</v>
+      </c>
+      <c r="F101">
+        <v>0.016939585758677</v>
+      </c>
+      <c r="G101">
+        <v>-0.01623861821597906</v>
+      </c>
+      <c r="H101">
+        <v>0.08191637099562006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1278410235876841</v>
+        <v>0.1051112871533891</v>
       </c>
       <c r="C102">
-        <v>-0.1144993693833451</v>
+        <v>0.1205590591780878</v>
       </c>
       <c r="D102">
-        <v>-0.04635386701114377</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06265742593364799</v>
+      </c>
+      <c r="E102">
+        <v>0.02431457501565616</v>
+      </c>
+      <c r="F102">
+        <v>-0.02120434217691375</v>
+      </c>
+      <c r="G102">
+        <v>0.01070387233201028</v>
+      </c>
+      <c r="H102">
+        <v>-0.05963578288833429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
